--- a/image/biologicallyderivedproduct.xlsx
+++ b/image/biologicallyderivedproduct.xlsx
@@ -861,44 +861,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="38.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="38.6015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.13671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="74.09375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="72.1796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/biologicallyderivedproduct.xlsx
+++ b/image/biologicallyderivedproduct.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="225">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -470,10 +470,6 @@
   </si>
   <si>
     <t>BiologicallyDerivedProduct.collection.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -861,44 +857,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="38.6015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.13671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="38.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="72.1796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="74.09375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2864,13 +2860,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2921,7 +2917,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -2936,7 +2932,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -2947,7 +2943,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2976,7 +2972,7 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>96</v>
@@ -3029,7 +3025,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3044,7 +3040,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3055,11 +3051,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3081,10 +3077,10 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>96</v>
@@ -3139,7 +3135,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3165,7 +3161,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3188,13 +3184,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3245,7 +3241,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3271,7 +3267,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3294,13 +3290,13 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3351,7 +3347,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3377,7 +3373,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3400,13 +3396,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3457,7 +3453,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3483,7 +3479,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3509,10 +3505,10 @@
         <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3563,7 +3559,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3589,7 +3585,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3612,13 +3608,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3669,7 +3665,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3684,7 +3680,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3695,7 +3691,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3724,7 +3720,7 @@
         <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -3777,7 +3773,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3792,7 +3788,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3803,11 +3799,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3829,10 +3825,10 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -3887,7 +3883,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3913,7 +3909,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3936,13 +3932,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3993,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4019,7 +4015,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4045,10 +4041,10 @@
         <v>117</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4078,11 +4074,11 @@
         <v>120</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4125,7 +4121,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4148,13 +4144,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4205,7 +4201,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4231,7 +4227,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4254,13 +4250,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4311,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4337,7 +4333,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4363,10 +4359,10 @@
         <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4417,7 +4413,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4443,7 +4439,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4466,13 +4462,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4523,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4538,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4549,7 +4545,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4578,7 +4574,7 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -4631,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4646,7 +4642,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4657,11 +4653,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4683,10 +4679,10 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>96</v>
@@ -4741,7 +4737,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4767,7 +4763,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4790,13 +4786,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4847,7 +4843,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4873,7 +4869,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4896,13 +4892,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4953,7 +4949,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -4979,7 +4975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5005,10 +5001,10 @@
         <v>141</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5059,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5085,7 +5081,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5108,13 +5104,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5165,7 +5161,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5180,7 +5176,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5191,7 +5187,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5220,7 +5216,7 @@
         <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>96</v>
@@ -5273,7 +5269,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5288,7 +5284,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5299,11 +5295,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5325,10 +5321,10 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -5383,7 +5379,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5409,7 +5405,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5432,13 +5428,13 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5489,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5538,13 +5534,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5595,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5621,7 +5617,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5647,10 +5643,10 @@
         <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5680,11 +5676,11 @@
         <v>113</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5727,7 +5723,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5750,13 +5746,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5807,7 +5803,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
